--- a/Assets/Project structure/Static classes.xlsx
+++ b/Assets/Project structure/Static classes.xlsx
@@ -38,7 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,16 +46,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -63,12 +85,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -376,40 +415,41 @@
   <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="128.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="161.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>